--- a/data/ACMG SF Annotations Download - ACMG SF v3.3 List.xlsx
+++ b/data/ACMG SF Annotations Download - ACMG SF v3.3 List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wwford/Documents/research/bogdan/pathogenic_variants_AllOfUs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{714559C0-DE30-904E-8A16-D0C9277A005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875AD87-1BAC-4541-97C3-1FAD38E28278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="760" windowWidth="28960" windowHeight="20300" xr2:uid="{45E66F74-3195-E842-B7F6-38AB3F1B3B26}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="28960" windowHeight="20300" xr2:uid="{45E66F74-3195-E842-B7F6-38AB3F1B3B26}"/>
   </bookViews>
   <sheets>
     <sheet name="ACMG SF Annotations Download - " sheetId="1" r:id="rId1"/>
@@ -34,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="236">
   <si>
     <t>Gene</t>
   </si>
@@ -551,12 +529,6 @@
     <t>ORPHAcode</t>
   </si>
   <si>
-    <t>SNOWMED</t>
-  </si>
-  <si>
-    <t>ORPHA:139396</t>
-  </si>
-  <si>
     <t>ORPHA:91387</t>
   </si>
   <si>
@@ -623,24 +595,6 @@
     <t>ORPHA:217656</t>
   </si>
   <si>
-    <t>ORPHA:293888</t>
-  </si>
-  <si>
-    <t>ORPHA:293899</t>
-  </si>
-  <si>
-    <t>ORPHA:293910</t>
-  </si>
-  <si>
-    <t>one-to-one</t>
-  </si>
-  <si>
-    <t>one-to-many</t>
-  </si>
-  <si>
-    <t>many-to-one</t>
-  </si>
-  <si>
     <t>many-to-one / BTNT</t>
   </si>
   <si>
@@ -677,9 +631,6 @@
     <t>ORPHA:171445</t>
   </si>
   <si>
-    <t>ORPHA:308552</t>
-  </si>
-  <si>
     <t>ORPHA:365</t>
   </si>
   <si>
@@ -713,27 +664,18 @@
     <t>ORPHA:54260</t>
   </si>
   <si>
-    <t>ORPHA:634475</t>
-  </si>
-  <si>
     <t>ORPHA:634475, ORPHA:637</t>
   </si>
   <si>
     <t>ORPHA:664</t>
   </si>
   <si>
-    <t>ORPHA:109</t>
-  </si>
-  <si>
     <t>ORPHA:109, ORPHA:2969, ORPHA:65285</t>
   </si>
   <si>
     <t>ORPHA:201</t>
   </si>
   <si>
-    <t>ORPHA:357027</t>
-  </si>
-  <si>
     <t>ORPHA:357027, ORPHA:357034</t>
   </si>
   <si>
@@ -773,9 +715,6 @@
     <t>ORPHA:60030, ORPHA:91387</t>
   </si>
   <si>
-    <t>ORPHA:284973</t>
-  </si>
-  <si>
     <t>ORPHA:284973, ORPHA:558</t>
   </si>
   <si>
@@ -788,9 +727,6 @@
     <t>ORPHA:271861</t>
   </si>
   <si>
-    <t>ORPHA:85447</t>
-  </si>
-  <si>
     <t>ORPHA:85447, ORPHA:85451</t>
   </si>
   <si>
@@ -806,35 +742,14 @@
     <t>BTNT indicates ORPHAcode is more broad. NTBT is opposite</t>
   </si>
   <si>
-    <t>ORPHA:139399</t>
-  </si>
-  <si>
-    <t>ORPHA:420429</t>
-  </si>
-  <si>
-    <t>ORPHA:637</t>
-  </si>
-  <si>
-    <t>ORPHA:2969</t>
-  </si>
-  <si>
-    <t>ORPHA:65285</t>
-  </si>
-  <si>
-    <t>ORPHA:357034</t>
-  </si>
-  <si>
-    <t>ORPHA:79076</t>
-  </si>
-  <si>
-    <t>ORPHA:85451</t>
+    <t>SNOMED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -986,6 +901,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1330,12 +1252,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1714,7 +1638,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4357,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EB986C-9912-DA46-AD84-78593814E572}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4372,7 +4296,7 @@
     <col min="5" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -4380,161 +4304,150 @@
         <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>300100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>611788</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>612098</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>600376</v>
       </c>
       <c r="B6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>175100</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>144010</v>
       </c>
       <c r="B8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>277900</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>613881</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>612954</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>174900</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>604370</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>612555</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>253260</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>601887</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4544,7 +4457,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4553,7 +4466,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4563,7 +4476,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -4577,7 +4490,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4585,7 +4498,7 @@
         <v>130050</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4593,7 +4506,7 @@
         <v>213700</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4602,7 +4515,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4610,7 +4523,7 @@
         <v>601419</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4619,7 +4532,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4628,10 +4541,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -4640,7 +4553,7 @@
         <v>607450</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4648,10 +4561,10 @@
         <v>615821</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4659,7 +4572,7 @@
         <v>187300</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4667,7 +4580,7 @@
         <v>154700</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -4675,7 +4588,7 @@
         <v>617047</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4683,7 +4596,7 @@
         <v>609524</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4691,10 +4604,10 @@
         <v>232300</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4702,7 +4615,7 @@
         <v>301500</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4710,7 +4623,7 @@
         <v>235200</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4718,7 +4631,7 @@
         <v>600496</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4726,7 +4639,7 @@
         <v>613688</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4734,10 +4647,10 @@
         <v>192500</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4745,7 +4658,7 @@
         <v>143890</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4753,10 +4666,10 @@
         <v>115200</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4764,7 +4677,7 @@
         <v>171300</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4772,7 +4685,7 @@
         <v>131100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4780,7 +4693,7 @@
         <v>609310</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4788,7 +4701,7 @@
         <v>120435</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4796,7 +4709,7 @@
         <v>614350</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4804,10 +4717,10 @@
         <v>608456</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4820,7 +4733,7 @@
         <v>132900</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4833,10 +4746,10 @@
         <v>613426</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4854,7 +4767,7 @@
         <v>101000</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4862,7 +4775,7 @@
         <v>311250</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4870,7 +4783,7 @@
         <v>114480</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4878,7 +4791,7 @@
         <v>603776</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4886,7 +4799,7 @@
         <v>609040</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4894,7 +4807,7 @@
         <v>609909</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4902,7 +4815,7 @@
         <v>614337</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4915,10 +4828,10 @@
         <v>158350</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4926,10 +4839,10 @@
         <v>180200</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4937,7 +4850,7 @@
         <v>613172</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4945,10 +4858,10 @@
         <v>155240</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4956,10 +4869,10 @@
         <v>171400</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4967,10 +4880,10 @@
         <v>162300</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4978,7 +4891,7 @@
         <v>613794</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4986,7 +4899,7 @@
         <v>145600</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -4994,7 +4907,7 @@
         <v>604772</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5002,7 +4915,7 @@
         <v>603830</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5010,7 +4923,7 @@
         <v>601144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5018,7 +4931,7 @@
         <v>601154</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5026,7 +4939,7 @@
         <v>601650</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5034,7 +4947,7 @@
         <v>605373</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5042,10 +4955,10 @@
         <v>613795</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5053,7 +4966,7 @@
         <v>175050</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5061,7 +4974,7 @@
         <v>175200</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5069,7 +4982,7 @@
         <v>609192</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5077,10 +4990,10 @@
         <v>610168</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5089,7 +5002,7 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5097,7 +5010,7 @@
         <v>611879</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5110,10 +5023,10 @@
         <v>601494</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,7 +5039,7 @@
         <v>151623</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5139,7 +5052,7 @@
         <v>615441</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5147,7 +5060,7 @@
         <v>191100</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5155,7 +5068,7 @@
         <v>613254</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5163,7 +5076,7 @@
         <v>604145</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5171,10 +5084,10 @@
         <v>105210</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5182,7 +5095,7 @@
         <v>193300</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5190,7 +5103,7 @@
         <v>194070</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5198,7 +5111,7 @@
         <v>204100</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5206,7 +5119,7 @@
         <v>168000</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -5214,7 +5127,7 @@
         <v>115310</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5224,1663 +5137,995 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AAF248-3EFB-C640-9F7B-496A3E7EEEB5}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="5" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="2" t="str" cm="1">
-        <f t="array" ref="B1:C1">_xlfn.TEXTSPLIT(A1,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C1" s="2" t="str">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="F1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>43</v>
       </c>
-      <c r="D1" t="str">
-        <f>C1</f>
-        <v>43</v>
-      </c>
-      <c r="E1" s="4">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="2" t="str" cm="1">
-        <f t="array" ref="B2:C2">_xlfn.TEXTSPLIT(A2,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C2" s="2" t="str">
+      <c r="B3" s="2">
+        <v>65389002</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>139396</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D65" si="0">C2</f>
-        <v>139396</v>
-      </c>
-      <c r="E2" s="4">
-        <v>139396</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" ref="B3:C3">_xlfn.TEXTSPLIT(A3,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <v>139399</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>139399</v>
-      </c>
-      <c r="E3" s="4">
-        <v>139399</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="2" t="str" cm="1">
-        <f t="array" ref="B4:C4">_xlfn.TEXTSPLIT(A4,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <v>91387</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>91387</v>
-      </c>
-      <c r="E4" s="4">
-        <v>91387</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="2" t="str" cm="1">
-        <f t="array" ref="B5:C5">_xlfn.TEXTSPLIT(A5,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <v>774</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>774</v>
-      </c>
-      <c r="E5" s="4">
-        <v>774</v>
-      </c>
+      <c r="A5" s="4">
+        <v>139399</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="2" t="str" cm="1">
-        <f t="array" ref="B6:C6">_xlfn.TEXTSPLIT(A6,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>220460</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>220460</v>
-      </c>
-      <c r="E6" s="4">
-        <v>220460</v>
-      </c>
+      <c r="A6" s="4">
+        <v>91387</v>
+      </c>
+      <c r="B6" s="2">
+        <v>764965000</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="2" t="str" cm="1">
-        <f t="array" ref="B7:C7">_xlfn.TEXTSPLIT(A7,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <v>391665</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>391665</v>
-      </c>
-      <c r="E7" s="4">
-        <v>391665</v>
-      </c>
+      <c r="A7" s="4">
+        <v>774</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21877004</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="2" t="str" cm="1">
-        <f t="array" ref="B8:C8">_xlfn.TEXTSPLIT(A8,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <v>905</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>905</v>
-      </c>
-      <c r="E8" s="4">
-        <v>905</v>
-      </c>
+      <c r="A8" s="4">
+        <v>220460</v>
+      </c>
+      <c r="B8" s="2">
+        <v>715866009</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="2" t="str" cm="1">
-        <f t="array" ref="B9:C9">_xlfn.TEXTSPLIT(A9,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <v>154</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="E9" s="4">
-        <v>154</v>
-      </c>
+      <c r="A9" s="4">
+        <v>391665</v>
+      </c>
+      <c r="B9" s="2">
+        <v>238078005</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="2" t="str" cm="1">
-        <f t="array" ref="B10:C10">_xlfn.TEXTSPLIT(A10,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <v>199340</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>199340</v>
-      </c>
-      <c r="E10" s="4">
-        <v>199340</v>
-      </c>
+      <c r="A10" s="4">
+        <v>905</v>
+      </c>
+      <c r="B10" s="2">
+        <v>88518009</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="2" t="str" cm="1">
-        <f t="array" ref="B11:C11">_xlfn.TEXTSPLIT(A11,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <v>329971</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>329971</v>
-      </c>
-      <c r="E11" s="4">
-        <v>329971</v>
-      </c>
+      <c r="A11" s="4">
+        <v>154</v>
+      </c>
+      <c r="B11" s="2">
+        <v>52029003</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="2" t="str" cm="1">
-        <f t="array" ref="B12:C12">_xlfn.TEXTSPLIT(A12,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <v>2929</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>2929</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2929</v>
-      </c>
+      <c r="A12" s="4">
+        <v>199340</v>
+      </c>
+      <c r="B12" s="2">
+        <v>723407009</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="2" t="str" cm="1">
-        <f t="array" ref="B13:C13">_xlfn.TEXTSPLIT(A13,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <v>145</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="E13" s="4">
-        <v>145</v>
-      </c>
+      <c r="A13" s="4">
+        <v>329971</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="2"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="2" t="str" cm="1">
-        <f t="array" ref="B14:C14">_xlfn.TEXTSPLIT(A14,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <v>227535</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>227535</v>
-      </c>
-      <c r="E14" s="4">
-        <v>227535</v>
-      </c>
+      <c r="A14" s="4">
+        <v>2929</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9273005</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="2" t="str" cm="1">
-        <f t="array" ref="B15:C15">_xlfn.TEXTSPLIT(A15,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <v>79241</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>79241</v>
-      </c>
-      <c r="E15" s="4">
-        <v>79241</v>
-      </c>
+      <c r="A15" s="4">
+        <v>145</v>
+      </c>
+      <c r="B15" s="2">
+        <v>718220008</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="2" t="str" cm="1">
-        <f t="array" ref="B16:C16">_xlfn.TEXTSPLIT(A16,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v>423</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>423</v>
-      </c>
-      <c r="E16" s="4">
-        <v>423</v>
-      </c>
+      <c r="A16" s="4">
+        <v>227535</v>
+      </c>
+      <c r="B16" s="2">
+        <v>254843006</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="2" t="str" cm="1">
-        <f t="array" ref="B17:C17">_xlfn.TEXTSPLIT(A17,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <v>101016</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>101016</v>
-      </c>
-      <c r="E17" s="4">
-        <v>101016</v>
-      </c>
+      <c r="A17" s="4">
+        <v>79241</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8808004</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="2" t="str" cm="1">
-        <f t="array" ref="B18:C18">_xlfn.TEXTSPLIT(A18,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <v>768</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>768</v>
-      </c>
-      <c r="E18" s="4">
-        <v>768</v>
-      </c>
+      <c r="A18" s="4">
+        <v>423</v>
+      </c>
+      <c r="B18" s="2">
+        <v>213026003</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="E18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="2"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="2" t="str" cm="1">
-        <f t="array" ref="B19:C19">_xlfn.TEXTSPLIT(A19,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <v>3286</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>3286</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3286</v>
-      </c>
+      <c r="A19" s="4">
+        <v>101016</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20852007</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="2" t="str" cm="1">
-        <f t="array" ref="B20:C20">_xlfn.TEXTSPLIT(A20,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <v>286</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="E20" s="4">
-        <v>286</v>
-      </c>
+      <c r="A20" s="4">
+        <v>768</v>
+      </c>
+      <c r="B20" s="2">
+        <v>442917000</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="2" t="str" cm="1">
-        <f t="array" ref="B21:C21">_xlfn.TEXTSPLIT(A21,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C21" s="4" t="str">
+      <c r="A21" s="4">
+        <v>3286</v>
+      </c>
+      <c r="B21" s="2">
+        <v>419671004</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>286</v>
+      </c>
+      <c r="B22" s="2">
+        <v>17025000</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>909</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>909</v>
-      </c>
-      <c r="E21" s="4">
-        <v>909</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="2" t="str" cm="1">
-        <f t="array" ref="B22:C22">_xlfn.TEXTSPLIT(A22,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <v>98909</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>98909</v>
-      </c>
-      <c r="E22" s="4">
-        <v>98909</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="2" t="str" cm="1">
-        <f t="array" ref="B23:C23">_xlfn.TEXTSPLIT(A23,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <v>217656</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>217656</v>
-      </c>
-      <c r="E23" s="4">
-        <v>217656</v>
-      </c>
+      <c r="B23" s="2">
+        <v>63246000</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="2" t="str" cm="1">
-        <f t="array" ref="B24:C24">_xlfn.TEXTSPLIT(A24,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <v>293888</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>293888</v>
-      </c>
-      <c r="E24" s="4">
-        <v>293888</v>
-      </c>
+      <c r="A24" s="4">
+        <v>98909</v>
+      </c>
+      <c r="B24" s="2">
+        <v>770627003</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="2" t="str" cm="1">
-        <f t="array" ref="B25:C25">_xlfn.TEXTSPLIT(A25,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <v>293899</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>293899</v>
-      </c>
-      <c r="E25" s="4">
-        <v>293899</v>
-      </c>
+      <c r="A25" s="4">
+        <v>217656</v>
+      </c>
+      <c r="B25" s="2">
+        <v>715865008</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="2" t="str" cm="1">
-        <f t="array" ref="B26:C26">_xlfn.TEXTSPLIT(A26,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <v>293910</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>293910</v>
-      </c>
-      <c r="E26" s="4">
-        <v>293910</v>
-      </c>
+      <c r="A26" s="4">
+        <v>293888</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="E26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="2" t="str" cm="1">
-        <f t="array" ref="B27:C27">_xlfn.TEXTSPLIT(A27,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C27" s="2" t="str">
-        <v>476096</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>476096</v>
-      </c>
-      <c r="E27" s="4">
-        <v>476096</v>
-      </c>
+      <c r="A27" s="4">
+        <v>293899</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="2" t="str" cm="1">
-        <f t="array" ref="B28:C28">_xlfn.TEXTSPLIT(A28,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C28" s="2" t="str">
-        <v>65282</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>65282</v>
-      </c>
-      <c r="E28" s="4">
-        <v>65282</v>
-      </c>
+      <c r="A28" s="4">
+        <v>293910</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="2" t="str" cm="1">
-        <f t="array" ref="B29:C29">_xlfn.TEXTSPLIT(A29,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C29" s="2" t="str">
-        <v>558</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>558</v>
-      </c>
-      <c r="E29" s="4">
-        <v>558</v>
-      </c>
+      <c r="A29" s="4">
+        <v>476096</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1179293006</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="2" t="str" cm="1">
-        <f t="array" ref="B30:C30">_xlfn.TEXTSPLIT(A30,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C30" s="4" t="str">
+      <c r="A30" s="4">
+        <v>65282</v>
+      </c>
+      <c r="B30" s="2">
+        <v>719835006</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>558</v>
+      </c>
+      <c r="B31" s="2">
+        <v>19346006</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>75249</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>75249</v>
-      </c>
-      <c r="E30" s="4">
-        <v>75249</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="2" t="str" cm="1">
-        <f t="array" ref="B31:C31">_xlfn.TEXTSPLIT(A31,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C31" s="4" t="str">
+      <c r="B32" s="2">
+        <v>233878008</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>171445</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>171445</v>
-      </c>
-      <c r="E31" s="4">
-        <v>171445</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="2" t="str" cm="1">
-        <f t="array" ref="B32:C32">_xlfn.TEXTSPLIT(A32,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C32" s="2" t="str">
-        <v>365</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="E32" s="4">
-        <v>365</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="2" t="str" cm="1">
-        <f t="array" ref="B33:C33">_xlfn.TEXTSPLIT(A33,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C33" s="4" t="str">
-        <v>308552</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>308552</v>
-      </c>
-      <c r="E33" s="4">
-        <v>308552</v>
-      </c>
+      <c r="B33" s="2">
+        <v>764992006</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B34" s="2" t="str" cm="1">
-        <f t="array" ref="B34:C34">_xlfn.TEXTSPLIT(A34,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C34" s="4" t="str">
+      <c r="A34" s="4">
+        <v>365</v>
+      </c>
+      <c r="B34" s="2">
+        <v>274864009</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>308552</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>420429</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>420429</v>
-      </c>
-      <c r="E34" s="4">
-        <v>420429</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="2" t="str" cm="1">
-        <f t="array" ref="B35:C35">_xlfn.TEXTSPLIT(A35,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C35" s="2" t="str">
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>324</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>324</v>
-      </c>
-      <c r="E35" s="4">
-        <v>324</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="2" t="str" cm="1">
-        <f t="array" ref="B36:C36">_xlfn.TEXTSPLIT(A36,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <v>465508</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>465508</v>
-      </c>
-      <c r="E36" s="4">
-        <v>465508</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B37" s="2" t="str" cm="1">
-        <f t="array" ref="B37:C37">_xlfn.TEXTSPLIT(A37,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C37" s="2" t="str">
-        <v>552</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>552</v>
-      </c>
-      <c r="E37" s="4">
-        <v>552</v>
-      </c>
+      <c r="B37" s="2">
+        <v>16652001</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="2"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="2" t="str" cm="1">
-        <f t="array" ref="B38:C38">_xlfn.TEXTSPLIT(A38,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <v>300751</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>300751</v>
-      </c>
-      <c r="E38" s="4">
-        <v>300751</v>
-      </c>
+      <c r="A38" s="4">
+        <v>465508</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1237181009</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="E38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="2"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="2" t="str" cm="1">
-        <f t="array" ref="B39:C39">_xlfn.TEXTSPLIT(A39,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C39" s="2" t="str">
-        <v>29072</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>29072</v>
-      </c>
-      <c r="E39" s="4">
-        <v>29072</v>
-      </c>
+      <c r="A39" s="4">
+        <v>552</v>
+      </c>
+      <c r="B39" s="2">
+        <v>609561005</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="E39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="2"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="2" t="str" cm="1">
-        <f t="array" ref="B40:C40">_xlfn.TEXTSPLIT(A40,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C40" s="2" t="str">
+      <c r="A40" s="4">
+        <v>300751</v>
+      </c>
+      <c r="B40" s="2">
+        <v>766883006</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>29072</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>652</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>652</v>
-      </c>
-      <c r="E40" s="4">
-        <v>652</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="2"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="2" t="str" cm="1">
-        <f t="array" ref="B41:C41">_xlfn.TEXTSPLIT(A41,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <v>144</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E41" s="4">
-        <v>144</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="2" t="str" cm="1">
-        <f t="array" ref="B42:C42">_xlfn.TEXTSPLIT(A42,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <v>247798</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>247798</v>
-      </c>
-      <c r="E42" s="4">
-        <v>247798</v>
-      </c>
+      <c r="B42" s="2">
+        <v>30664006</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" s="2" t="str" cm="1">
-        <f t="array" ref="B43:C43">_xlfn.TEXTSPLIT(A43,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C43" s="4" t="str">
-        <v>733</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>733</v>
-      </c>
-      <c r="E43" s="4">
-        <v>733</v>
-      </c>
+      <c r="A43" s="4">
+        <v>144</v>
+      </c>
+      <c r="B43" s="2">
+        <v>716318002</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" s="2" t="str" cm="1">
-        <f t="array" ref="B44:C44">_xlfn.TEXTSPLIT(A44,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <v>54260</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>54260</v>
-      </c>
-      <c r="E44" s="4">
-        <v>54260</v>
-      </c>
+      <c r="A44" s="4">
+        <v>247798</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="E44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B45" s="2" t="str" cm="1">
-        <f t="array" ref="B45:C45">_xlfn.TEXTSPLIT(A45,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C45" s="2" t="str">
+      <c r="A45" s="4">
+        <v>733</v>
+      </c>
+      <c r="B45" s="2">
+        <v>72900001</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>54260</v>
+      </c>
+      <c r="B46" s="2">
+        <v>447935001</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="2"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>634475</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>634475</v>
-      </c>
-      <c r="E45" s="4">
-        <v>634475</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="2"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B46" s="2" t="str" cm="1">
-        <f t="array" ref="B46:C46">_xlfn.TEXTSPLIT(A46,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <v>637</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>637</v>
-      </c>
-      <c r="E46" s="4">
-        <v>637</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" s="2" t="str" cm="1">
-        <f t="array" ref="B47:C47">_xlfn.TEXTSPLIT(A47,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C47" s="2" t="str">
-        <v>664</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>664</v>
-      </c>
-      <c r="E47" s="4">
-        <v>664</v>
-      </c>
+      <c r="B47" s="2">
+        <v>1304119009</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B48" s="2" t="str" cm="1">
-        <f t="array" ref="B48:C48">_xlfn.TEXTSPLIT(A48,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <v>109</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="E48" s="4">
-        <v>109</v>
-      </c>
+      <c r="A48" s="4">
+        <v>637</v>
+      </c>
+      <c r="B48" s="2">
+        <v>92503002</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="2" t="str" cm="1">
-        <f t="array" ref="B49:C49">_xlfn.TEXTSPLIT(A49,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <v>2969</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>2969</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2969</v>
-      </c>
+      <c r="A49" s="4">
+        <v>664</v>
+      </c>
+      <c r="B49" s="2">
+        <v>80908008</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="E49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B50" s="2" t="str" cm="1">
-        <f t="array" ref="B50:C50">_xlfn.TEXTSPLIT(A50,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <v>65285</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>65285</v>
-      </c>
-      <c r="E50" s="4">
-        <v>65285</v>
-      </c>
+      <c r="A50" s="4">
+        <v>109</v>
+      </c>
+      <c r="B50" s="2">
+        <v>234138005</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="2" t="str" cm="1">
-        <f t="array" ref="B51:C51">_xlfn.TEXTSPLIT(A51,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C51" s="4" t="str">
-        <v>201</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-      <c r="E51" s="4">
-        <v>201</v>
-      </c>
+      <c r="A51" s="4">
+        <v>2969</v>
+      </c>
+      <c r="B51" s="2">
+        <v>716862002</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="E51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="H51" s="2"/>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" s="2" t="str" cm="1">
-        <f t="array" ref="B52:C52">_xlfn.TEXTSPLIT(A52,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <v>790</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>790</v>
-      </c>
-      <c r="E52" s="4">
-        <v>790</v>
-      </c>
+      <c r="A52" s="4">
+        <v>65285</v>
+      </c>
+      <c r="B52" s="2">
+        <v>67944007</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="E52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B53" s="2" t="str" cm="1">
-        <f t="array" ref="B53:C53">_xlfn.TEXTSPLIT(A53,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C53" s="4" t="str">
-        <v>357027</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>357027</v>
-      </c>
-      <c r="E53" s="4">
-        <v>357027</v>
-      </c>
+      <c r="A53" s="4">
+        <v>201</v>
+      </c>
+      <c r="B53" s="2">
+        <v>58037000</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54" s="2" t="str" cm="1">
-        <f t="array" ref="B54:C54">_xlfn.TEXTSPLIT(A54,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <v>357034</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>357034</v>
-      </c>
-      <c r="E54" s="4">
-        <v>357034</v>
-      </c>
+      <c r="A54" s="4">
+        <v>790</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1268901001</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" s="2" t="str" cm="1">
-        <f t="array" ref="B55:C55">_xlfn.TEXTSPLIT(A55,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C55" s="2" t="str">
+      <c r="A55" s="4">
+        <v>357027</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>357034</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>99361</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>99361</v>
-      </c>
-      <c r="E55" s="4">
-        <v>99361</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="2"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="2" t="str" cm="1">
-        <f t="array" ref="B56:C56">_xlfn.TEXTSPLIT(A56,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C56" s="2" t="str">
-        <v>653</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>653</v>
-      </c>
-      <c r="E56" s="4">
-        <v>653</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="2"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B57" s="2" t="str" cm="1">
-        <f t="array" ref="B57:C57">_xlfn.TEXTSPLIT(A57,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C57" s="2" t="str">
-        <v>247698</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>247698</v>
-      </c>
-      <c r="E57" s="4">
-        <v>247698</v>
-      </c>
+      <c r="B57" s="2">
+        <v>1367660004</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="E57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="2"/>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B58" s="2" t="str" cm="1">
-        <f t="array" ref="B58:C58">_xlfn.TEXTSPLIT(A58,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C58" s="2" t="str">
-        <v>247709</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>247709</v>
-      </c>
-      <c r="E58" s="4">
-        <v>247709</v>
-      </c>
+      <c r="A58" s="4">
+        <v>653</v>
+      </c>
+      <c r="B58" s="2">
+        <v>61808009</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="E58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="2"/>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="2" t="str" cm="1">
-        <f t="array" ref="B59:C59">_xlfn.TEXTSPLIT(A59,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C59" s="4" t="str">
-        <v>791</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>791</v>
-      </c>
-      <c r="E59" s="4">
-        <v>791</v>
-      </c>
+      <c r="A59" s="4">
+        <v>247698</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="E59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="2"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" s="2" t="str" cm="1">
-        <f t="array" ref="B60:C60">_xlfn.TEXTSPLIT(A60,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C60" s="2" t="str">
-        <v>130</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E60" s="4">
-        <v>130</v>
-      </c>
+      <c r="A60" s="4">
+        <v>247709</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="E60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="2"/>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" s="2" t="str" cm="1">
-        <f t="array" ref="B61:C61">_xlfn.TEXTSPLIT(A61,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C61" s="2" t="str">
-        <v>284984</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>284984</v>
-      </c>
-      <c r="E61" s="4">
-        <v>284984</v>
-      </c>
+      <c r="A61" s="4">
+        <v>791</v>
+      </c>
+      <c r="B61" s="2">
+        <v>28835009</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="E61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="4"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B62" s="2" t="str" cm="1">
-        <f t="array" ref="B62:C62">_xlfn.TEXTSPLIT(A62,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <v>60030</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>60030</v>
-      </c>
-      <c r="E62" s="4">
-        <v>60030</v>
-      </c>
+      <c r="A62" s="4">
+        <v>130</v>
+      </c>
+      <c r="B62" s="2">
+        <v>418818005</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="E62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="2"/>
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B63" s="2" t="str" cm="1">
-        <f t="array" ref="B63:C63">_xlfn.TEXTSPLIT(A63,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C63" s="2" t="str">
-        <v>79076</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>79076</v>
-      </c>
-      <c r="E63" s="4">
-        <v>79076</v>
-      </c>
+      <c r="A63" s="4">
+        <v>284984</v>
+      </c>
+      <c r="B63" s="2">
+        <v>785808002</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="E63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="2"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B64" s="2" t="str" cm="1">
-        <f t="array" ref="B64:C64">_xlfn.TEXTSPLIT(A64,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C64" s="2" t="str">
-        <v>2869</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>2869</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2869</v>
-      </c>
+      <c r="A64" s="4">
+        <v>60030</v>
+      </c>
+      <c r="B64" s="2">
+        <v>446263001</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="E64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="2"/>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="2" t="str" cm="1">
-        <f t="array" ref="B65:C65">_xlfn.TEXTSPLIT(A65,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C65" s="2" t="str">
-        <v>284973</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>284973</v>
-      </c>
-      <c r="E65" s="4">
-        <v>284973</v>
-      </c>
+      <c r="A65" s="4">
+        <v>79076</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="E65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="2"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="2" t="str" cm="1">
-        <f t="array" ref="B66:C66">_xlfn.TEXTSPLIT(A66,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C66" s="2" t="str">
-        <v>524</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:D73" si="1">C66</f>
-        <v>524</v>
-      </c>
-      <c r="E66" s="4">
-        <v>524</v>
-      </c>
+      <c r="A66" s="4">
+        <v>2869</v>
+      </c>
+      <c r="B66" s="2">
+        <v>54411001</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="E66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="2"/>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="2" t="str" cm="1">
-        <f t="array" ref="B67:C67">_xlfn.TEXTSPLIT(A67,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C67" s="4" t="str">
+      <c r="A67" s="4">
+        <v>284973</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="E67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="2"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>524</v>
+      </c>
+      <c r="B68" s="2">
+        <v>428850001</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="E68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="2"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>805</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="1"/>
-        <v>805</v>
-      </c>
-      <c r="E67" s="4">
-        <v>805</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" s="2" t="str" cm="1">
-        <f t="array" ref="B68:C68">_xlfn.TEXTSPLIT(A68,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C68" s="4" t="str">
+      <c r="B69" s="2">
+        <v>7199000</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>271861</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>271861</v>
-      </c>
-      <c r="E68" s="4">
-        <v>271861</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" s="2" t="str" cm="1">
-        <f t="array" ref="B69:C69">_xlfn.TEXTSPLIT(A69,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C69" s="2" t="str">
-        <v>85447</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
-        <v>85447</v>
-      </c>
-      <c r="E69" s="4">
-        <v>85447</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="2"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" s="2" t="str" cm="1">
-        <f t="array" ref="B70:C70">_xlfn.TEXTSPLIT(A70,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C70" s="4" t="str">
-        <v>85451</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
-        <v>85451</v>
-      </c>
-      <c r="E70" s="4">
-        <v>85451</v>
-      </c>
+      <c r="B70" s="2">
+        <v>1354544003</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="E70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" s="2" t="str" cm="1">
-        <f t="array" ref="B71:C71">_xlfn.TEXTSPLIT(A71,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C71" s="2" t="str">
-        <v>892</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
-        <v>892</v>
-      </c>
-      <c r="E71" s="4">
-        <v>892</v>
-      </c>
+      <c r="A71" s="4">
+        <v>85447</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42295001</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="E71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="2"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" s="2" t="str" cm="1">
-        <f t="array" ref="B72:C72">_xlfn.TEXTSPLIT(A72,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C72" s="2" t="str">
-        <v>654</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
-        <v>654</v>
-      </c>
-      <c r="E72" s="4">
-        <v>654</v>
-      </c>
+      <c r="A72" s="4">
+        <v>85451</v>
+      </c>
+      <c r="B72" s="2">
+        <v>715655000</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="E72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="2"/>
+      <c r="H72" s="4"/>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B73" s="2" t="str" cm="1">
-        <f t="array" ref="B73:C73">_xlfn.TEXTSPLIT(A73,":")</f>
-        <v>ORPHA</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <v>65</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="E73" s="4">
-        <v>65</v>
-      </c>
+      <c r="A73" s="4">
+        <v>892</v>
+      </c>
+      <c r="B73" s="2">
+        <v>46659004</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="E73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="2"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="4"/>
+      <c r="A74" s="4">
+        <v>654</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1268714009</v>
+      </c>
       <c r="C74" s="2"/>
+      <c r="E74" s="4"/>
       <c r="G74" s="4"/>
+      <c r="H74" s="2"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="4">
+        <v>65</v>
+      </c>
+      <c r="B75" s="2">
+        <v>193413001</v>
+      </c>
       <c r="C75" s="2"/>
+      <c r="E75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="2"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="2"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="4"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -6890,7 +6135,7 @@
     </row>
     <row r="84" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -6903,10 +6148,10 @@
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
@@ -6919,24 +6164,24 @@
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
+      <c r="A93" s="2"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
@@ -6948,6 +6193,16 @@
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
     </row>
+    <row r="96" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
